--- a/2/data/loaihinh.xlsx
+++ b/2/data/loaihinh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5AC0BD-A97C-4FB4-94B8-713FB63894C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A64F0A-62D3-4699-A27D-0EF2B81CC0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{118CEFF5-F2D9-4C5C-94ED-75DF6EB132FF}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>loaihinh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>maloaihinh</t>
   </si>
@@ -441,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EAE48-E5A6-46CF-BCE0-CA2F29454249}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,11 +454,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -484,18 +483,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
